--- a/dataset/SeamTaping_All.xlsx
+++ b/dataset/SeamTaping_All.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="1331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2632" uniqueCount="1326">
   <si>
     <t>ID</t>
   </si>
@@ -4005,21 +4005,6 @@
   </si>
   <si>
     <t>[{"x":525.2767527675277,"y":511.5313653136531},{"x":559.2250922509226,"y":662.0848708487085},{"x":526.0147601476015,"y":665.7749077490774},{"x":507.56457564575646,"y":518.1734317343173}]</t>
-  </si>
-  <si>
-    <t>66390766545811004db5a15d</t>
-  </si>
-  <si>
-    <t>Mushy Cicada</t>
-  </si>
-  <si>
-    <t>Installed</t>
-  </si>
-  <si>
-    <t>https://platform.skand.io/api/v3/resources/reports/665e0f5e924863004d5abaa5/annotations/66390766545811004db5a159/files/660e99437931df004d42ed3e/signedUrl</t>
-  </si>
-  <si>
-    <t>[{"x":1.4878228782287242,"y":1163.1055350553509},{"x":8.926937269372637,"y":1337.9247232472328},{"x":4029.7682656826573,"y":1397.437638376384},{"x":4022.3291512915134,"y":1226.338007380074}]</t>
   </si>
 </sst>
 </file>
@@ -4998,10 +4983,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H330"/>
+  <dimension ref="A1:H329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B292" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D327" sqref="D327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
@@ -13563,32 +13548,6 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="330" spans="1:8">
-      <c r="A330" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C330" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D330" t="s">
-        <v>11</v>
-      </c>
-      <c r="E330" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F330" t="s">
-        <v>13</v>
-      </c>
-      <c r="G330" t="s">
-        <v>1329</v>
-      </c>
-      <c r="H330" t="s">
-        <v>1330</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
